--- a/每周计划/2019-2-15.xlsx
+++ b/每周计划/2019-2-15.xlsx
@@ -51,10 +51,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>制定健身计划</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>钢琴知识整理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -62,77 +58,94 @@
     <t>确定周计划如何编写 考虑能在电脑上和手机上都进行编辑 最好能根据重要/紧急进行划分，使用简单这几方面</t>
   </si>
   <si>
+    <t>今日回顾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英语</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>相亲会</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钢琴练习</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今日计划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>相亲会</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英语</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钢琴课</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>星期一</t>
+  </si>
+  <si>
+    <t>制定练字计划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>归纳和整理管理时间方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阅读管理时间书籍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寻找搜索周末活动，安排周末活动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>制定和优化个人长期计划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习且应用Android专业知识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习且应用Android专业知识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>未来任务划分并且安排长期任务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>制定</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>健身计划</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认To-Do中重要但不紧急，定期工作，长期任务是否进行合并和优化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>今日回顾</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>英语</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>相亲会</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>钢琴练习</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>今日计划</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>今日回顾</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>相亲会</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>英语</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>钢琴课</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>确认To-Do中重要但不紧急，定期工作，长期任务是否进行合并和优化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>星期一</t>
-  </si>
-  <si>
-    <t>制定练字计划</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>归纳和整理管理时间方法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>阅读管理时间书籍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>寻找搜索周末活动，安排周末活动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>制定和优化个人长期计划</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>学习且应用Android专业知识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>学习且应用Android专业知识</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -140,7 +153,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -160,6 +173,14 @@
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -189,12 +210,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -517,7 +541,7 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>2</v>
@@ -546,36 +570,36 @@
         <v>8</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>9</v>
+      <c r="F3" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -583,30 +607,30 @@
         <v>3</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F5" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -614,10 +638,10 @@
         <v>5</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -625,7 +649,7 @@
         <v>6</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -633,34 +657,34 @@
         <v>7</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.35">

--- a/每周计划/2019-2-15.xlsx
+++ b/每周计划/2019-2-15.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDA9E57E-395A-40AC-8B01-A5882FB60D80}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="27">
   <si>
     <t>时间/任务列表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -55,9 +56,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>确定周计划如何编写 考虑能在电脑上和手机上都进行编辑 最好能根据重要/紧急进行划分，使用简单这几方面</t>
-  </si>
-  <si>
     <t>今日回顾</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -78,14 +76,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>相亲会</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>英语</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>钢琴课</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -110,10 +100,6 @@
   </si>
   <si>
     <t>制定和优化个人长期计划</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>学习且应用Android专业知识</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -145,14 +131,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>今日回顾</t>
+    <t>确定周计划如何编写 考虑能在电脑上和手机上都进行编辑 最好能根据重要/紧急进行划分，使用简单这几方面</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -184,7 +170,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -194,6 +180,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -210,7 +208,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -218,7 +216,13 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -500,11 +504,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4:J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -541,7 +545,7 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>2</v>
@@ -570,36 +574,36 @@
         <v>8</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>28</v>
+      <c r="F3" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -610,27 +614,25 @@
         <v>9</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>21</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" s="5"/>
     </row>
     <row r="5" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F5" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -638,10 +640,10 @@
         <v>5</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -649,7 +651,7 @@
         <v>6</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -657,35 +659,19 @@
         <v>7</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O8" s="1" t="s">
-        <v>25</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
     </row>
     <row r="9" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
@@ -903,6 +889,10 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="G8:O8"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
